--- a/biology/Botanique/Amélanchier_du_Canada/Amélanchier_du_Canada.xlsx
+++ b/biology/Botanique/Amélanchier_du_Canada/Amélanchier_du_Canada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Am%C3%A9lanchier_du_Canada</t>
+          <t>Amélanchier_du_Canada</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amelanchier canadensis
 L'Amélanchier du Canada, Amelanchier canadensis, est une espèce de plantes à fleurs de la famille des Rosaceae, originaire d’Amérique du Nord.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Am%C3%A9lanchier_du_Canada</t>
+          <t>Amélanchier_du_Canada</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste à feuilles caduques, vigoureux (jusqu'à 4-5 m de hauteur), épargné par la plupart des parasites et relativement rustique vis-à-vis des conditions culturales.
 Il produit des fleurs décoratives durant le mois d'avril, celles-ci donnent naissance à des piridions qui ressemblent à des baies, de la taille d'un petit pois, de couleur pourpre noirâtre à maturité, légèrement sucrés et comestibles à partir de la mi-juillet. Ainsi les appelle-t-on couramment « petites poires ». Il a la particularité de commencer à produire fleurs et fruits très jeune.  Ainsi des individus de 30 à 40 cm de haut peuvent commencer à se reproduire.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Am%C3%A9lanchier_du_Canada</t>
+          <t>Amélanchier_du_Canada</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce d'arbuste présentant de nombreux intérêts ornementaux.
 Il est rustique et peu exigeant sur la nature des sols et l'exposition. Il peut être planté de façon isolée ou bien en massifs ou haies libres.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Am%C3%A9lanchier_du_Canada</t>
+          <t>Amélanchier_du_Canada</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Horticolor « Guide des végétaux », arbres et arbustes
 </t>
